--- a/transfer/data/transfer_by_major.xlsx
+++ b/transfer/data/transfer_by_major.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Biological Sciences" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Business" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Communication Arts" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Computer Information Systems" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Computer Science " sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Computer Science" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="EET w_ CT Option" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Electrical Engineering Technology" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="English" sheetId="8" state="visible" r:id="rId9"/>
@@ -6393,11 +6393,12 @@
     <numFmt numFmtId="168" formatCode="M/D;@"/>
     <numFmt numFmtId="169" formatCode="M/D/YY;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -6415,65 +6416,12 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -6481,79 +6429,42 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -6568,27 +6479,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -6627,7 +6523,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6651,43 +6547,54 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="73">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -6702,11 +6609,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6714,63 +6629,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6782,107 +6661,95 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6890,222 +6757,113 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="23">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -7117,7 +6875,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -7133,7 +6891,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -7162,11 +6920,11 @@
   </sheetPr>
   <dimension ref="A1:I164"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.98"/>
@@ -7176,8 +6934,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="38.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="155.93"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="155.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11582,7 +11339,7 @@
       <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.71"/>
@@ -11590,86 +11347,84 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.07"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="80.34"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="44.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="56" t="s">
         <v>1620</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="54" t="s">
         <v>514</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="54" t="s">
         <v>515</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="53" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="32" t="s">
         <v>1731</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="32" t="s">
         <v>1732</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="32" t="s">
         <v>1733</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="49" t="s">
         <v>1651</v>
       </c>
-      <c r="E2" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="F2" s="53" t="s">
+      <c r="E2" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="32" t="s">
         <v>1734</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="32" t="s">
         <v>1735</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="50" t="s">
         <v>1736</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="32" t="s">
         <v>1528</v>
       </c>
-      <c r="L2" s="53"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
@@ -11740,38 +11495,38 @@
       <c r="L4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="5" t="s">
         <v>1731</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="5" t="s">
         <v>1741</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="5" t="s">
         <v>1742</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" s="56" t="s">
+      <c r="E5" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>1734</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="5" t="s">
         <v>1735</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="7" t="s">
         <v>1736</v>
       </c>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56" t="s">
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
         <v>1528</v>
       </c>
-      <c r="L5" s="56"/>
+      <c r="L5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
@@ -11805,14 +11560,14 @@
       <c r="K6" s="5" t="s">
         <v>1249</v>
       </c>
-      <c r="L6" s="85" t="s">
+      <c r="L6" s="66" t="s">
         <v>1746</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -11831,65 +11586,62 @@
       <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.78"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.37"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="8" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="44.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="53" t="s">
         <v>1747</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="56" t="s">
         <v>1620</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="54" t="s">
         <v>514</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="L1" s="54" t="s">
         <v>515</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="53" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -11908,7 +11660,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.98"/>
@@ -11918,108 +11670,106 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.55"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="22.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="44.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="54" t="s">
         <v>513</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="54" t="s">
         <v>514</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="54" t="s">
         <v>515</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="53" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="32" t="s">
         <v>875</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="32" t="s">
         <v>1748</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="32" t="s">
         <v>1749</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="32" t="s">
         <v>920</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="32" t="s">
         <v>1610</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="5" t="s">
         <v>1750</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="5" t="s">
         <v>1751</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="51" t="s">
         <v>721</v>
       </c>
-      <c r="E3" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="F3" s="56" t="s">
+      <c r="E3" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>1752</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="5" t="s">
         <v>1753</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
@@ -12112,64 +11862,64 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="5" t="s">
         <v>1759</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="5" t="s">
         <v>1751</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="E7" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="F7" s="56" t="s">
+      <c r="E7" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>1752</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="56" t="s">
+      <c r="H7" s="5" t="s">
         <v>1753</v>
       </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="5" t="s">
         <v>1759</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="5" t="s">
         <v>1751</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="51" t="s">
         <v>783</v>
       </c>
-      <c r="E8" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="F8" s="56" t="s">
+      <c r="E8" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>1752</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H8" s="56" t="s">
+      <c r="H8" s="5" t="s">
         <v>1753</v>
       </c>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
@@ -12232,34 +11982,34 @@
       <c r="L10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="5" t="s">
         <v>1607</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="5" t="s">
         <v>1608</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="51" t="s">
         <v>725</v>
       </c>
-      <c r="E11" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="F11" s="56" t="s">
+      <c r="E11" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>1609</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="H11" s="56" t="s">
+      <c r="H11" s="5" t="s">
         <v>1755</v>
       </c>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
@@ -12322,39 +12072,39 @@
       <c r="L13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="5" t="s">
         <v>1765</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="5" t="s">
         <v>1770</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="5" t="s">
         <v>1608</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="51" t="s">
         <v>1771</v>
       </c>
-      <c r="E14" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="F14" s="56" t="s">
+      <c r="E14" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>1609</v>
       </c>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H14" s="56" t="s">
+      <c r="H14" s="5" t="s">
         <v>1757</v>
       </c>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -12373,7 +12123,7 @@
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.98"/>
@@ -12382,148 +12132,146 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.35"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="120.16"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="44.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="54" t="s">
         <v>513</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="54" t="s">
         <v>514</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="54" t="s">
         <v>515</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="53" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="67" t="s">
         <v>1772</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="67" t="s">
         <v>1773</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="67" t="s">
         <v>1774</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="87" t="s">
+      <c r="F2" s="67" t="s">
         <v>1775</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="67" t="s">
         <v>1776</v>
       </c>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87" t="s">
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67" t="s">
         <v>1528</v>
       </c>
-      <c r="L2" s="87"/>
+      <c r="L2" s="67"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="67" t="s">
         <v>1777</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="70" t="s">
         <v>1778</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="70" t="s">
         <v>1779</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="90" t="s">
+      <c r="F3" s="70" t="s">
         <v>1780</v>
       </c>
-      <c r="G3" s="92" t="s">
+      <c r="G3" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="90" t="s">
+      <c r="H3" s="70" t="s">
         <v>1776</v>
       </c>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90" t="s">
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70" t="s">
         <v>1528</v>
       </c>
-      <c r="L3" s="90" t="s">
+      <c r="L3" s="70" t="s">
         <v>1781</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="67" t="s">
         <v>1777</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="70" t="s">
         <v>1782</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="70" t="s">
         <v>1783</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="E4" s="96" t="s">
+      <c r="E4" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="94" t="s">
+      <c r="F4" s="70" t="s">
         <v>1784</v>
       </c>
-      <c r="G4" s="97" t="s">
+      <c r="G4" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="94" t="s">
+      <c r="H4" s="70" t="s">
         <v>1776</v>
       </c>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94" t="s">
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70" t="s">
         <v>1528</v>
       </c>
-      <c r="L4" s="94" t="s">
+      <c r="L4" s="70" t="s">
         <v>1785</v>
       </c>
     </row>
@@ -12554,70 +12302,70 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="70" t="s">
         <v>247</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="70" t="s">
         <v>1789</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="70" t="s">
         <v>1790</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="71" t="s">
         <v>1791</v>
       </c>
-      <c r="E6" s="95" t="s">
+      <c r="E6" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="70" t="s">
         <v>1792</v>
       </c>
-      <c r="G6" s="97" t="s">
+      <c r="G6" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="94" t="s">
+      <c r="H6" s="70" t="s">
         <v>1776</v>
       </c>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94" t="s">
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70" t="s">
         <v>1528</v>
       </c>
-      <c r="L6" s="94" t="s">
+      <c r="L6" s="70" t="s">
         <v>1793</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="70" t="s">
         <v>247</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="70" t="s">
         <v>1794</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="70" t="s">
         <v>1795</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="71" t="s">
         <v>1796</v>
       </c>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="70" t="s">
         <v>1797</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="90" t="s">
+      <c r="H7" s="70" t="s">
         <v>1776</v>
       </c>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90" t="s">
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70" t="s">
         <v>1528</v>
       </c>
-      <c r="L7" s="90" t="s">
+      <c r="L7" s="70" t="s">
         <v>1798</v>
       </c>
     </row>
@@ -12625,65 +12373,65 @@
       <c r="A8" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="5" t="s">
         <v>1799</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="5" t="s">
         <v>1800</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="51" t="s">
         <v>267</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="5" t="s">
         <v>1801</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="H8" s="56" t="s">
+      <c r="H8" s="5" t="s">
         <v>1802</v>
       </c>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56" t="s">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5" t="s">
         <v>1528</v>
       </c>
-      <c r="L8" s="56"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="5" t="s">
         <v>1803</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="5" t="s">
         <v>1804</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="51" t="s">
         <v>78</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="5" t="s">
         <v>1805</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="5" t="s">
         <v>1776</v>
       </c>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56" t="s">
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5" t="s">
         <v>1528</v>
       </c>
-      <c r="L9" s="56"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
@@ -12750,36 +12498,36 @@
       <c r="L11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="70" t="s">
         <v>309</v>
       </c>
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="70" t="s">
         <v>1809</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="70" t="s">
         <v>1810</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="D12" s="71" t="s">
         <v>1164</v>
       </c>
-      <c r="E12" s="95" t="s">
+      <c r="E12" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="94" t="s">
+      <c r="F12" s="70" t="s">
         <v>1784</v>
       </c>
-      <c r="G12" s="97" t="s">
+      <c r="G12" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="H12" s="94" t="s">
+      <c r="H12" s="70" t="s">
         <v>1776</v>
       </c>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94" t="s">
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70" t="s">
         <v>1528</v>
       </c>
-      <c r="L12" s="94"/>
+      <c r="L12" s="70"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
@@ -12812,66 +12560,66 @@
       <c r="L13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="70" t="s">
         <v>309</v>
       </c>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="70" t="s">
         <v>1813</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="70" t="s">
         <v>1814</v>
       </c>
-      <c r="D14" s="91" t="s">
+      <c r="D14" s="71" t="s">
         <v>1815</v>
       </c>
-      <c r="E14" s="91" t="s">
+      <c r="E14" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="90" t="s">
+      <c r="F14" s="70" t="s">
         <v>1797</v>
       </c>
-      <c r="G14" s="92" t="s">
+      <c r="G14" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="90" t="s">
+      <c r="H14" s="70" t="s">
         <v>1776</v>
       </c>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90" t="s">
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70" t="s">
         <v>1528</v>
       </c>
-      <c r="L14" s="90"/>
+      <c r="L14" s="70"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="5" t="s">
         <v>1816</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="5" t="s">
         <v>1817</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="5" t="s">
         <v>1818</v>
       </c>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="56" t="s">
+      <c r="H15" s="5" t="s">
         <v>1776</v>
       </c>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
@@ -12934,7 +12682,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -12953,58 +12701,56 @@
       <selection pane="topLeft" activeCell="A116" activeCellId="0" sqref="A116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.95"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="172.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="44.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="G1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="54" t="s">
         <v>513</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="54" t="s">
         <v>514</v>
       </c>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="54" t="s">
         <v>515</v>
       </c>
-      <c r="L1" s="69" t="s">
+      <c r="L1" s="53" t="s">
         <v>8</v>
       </c>
     </row>
@@ -13021,7 +12767,7 @@
       <c r="D2" s="6" t="n">
         <v>2012</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="49" t="s">
         <v>170</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -16457,7 +16203,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -16476,7 +16222,7 @@
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.98"/>
@@ -16487,47 +16233,45 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="38.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="44.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="G1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="54" t="s">
         <v>513</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="54" t="s">
         <v>514</v>
       </c>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="54" t="s">
         <v>515</v>
       </c>
-      <c r="L1" s="69" t="s">
+      <c r="L1" s="53" t="s">
         <v>8</v>
       </c>
     </row>
@@ -16541,16 +16285,16 @@
       <c r="C2" s="32" t="s">
         <v>2083</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="49" t="s">
         <v>2084</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="49" t="s">
         <v>170</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>2085</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="50" t="s">
         <v>1522</v>
       </c>
       <c r="H2" s="32" t="s">
@@ -16840,7 +16584,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -16859,7 +16603,7 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.83"/>
@@ -16869,9 +16613,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="14.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="147.94"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="158.02"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="44.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26573,7 +26315,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -26592,7 +26334,7 @@
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.98"/>
@@ -26602,109 +26344,107 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.48"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="99.32"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="44.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="24" t="s">
         <v>513</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="22" t="s">
         <v>514</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="22" t="s">
         <v>515</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="32" t="s">
         <v>1150</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="32" t="s">
         <v>1151</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="32" t="s">
         <v>1152</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="49" t="s">
         <v>1153</v>
       </c>
-      <c r="E2" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="F2" s="53" t="s">
+      <c r="E2" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="32" t="s">
         <v>1154</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="32" t="s">
         <v>1155</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="5" t="s">
         <v>1150</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="5" t="s">
         <v>1156</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="5" t="s">
         <v>1157</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="5" t="s">
         <v>1158</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="5" t="s">
         <v>1155</v>
       </c>
-      <c r="I3" s="58"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
@@ -27005,34 +26745,34 @@
       <c r="L13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="5" t="s">
         <v>1189</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="5" t="s">
         <v>1190</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="5" t="s">
         <v>1191</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="51" t="s">
         <v>1192</v>
       </c>
-      <c r="E14" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="F14" s="56" t="s">
+      <c r="E14" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>1171</v>
       </c>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="7" t="s">
         <v>1193</v>
       </c>
-      <c r="H14" s="56" t="s">
+      <c r="H14" s="5" t="s">
         <v>1194</v>
       </c>
-      <c r="I14" s="58"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
@@ -27155,34 +26895,34 @@
       <c r="L18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="5" t="s">
         <v>1210</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="5" t="s">
         <v>1211</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="E19" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="F19" s="56" t="s">
+      <c r="E19" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>1161</v>
       </c>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="H19" s="56" t="s">
+      <c r="H19" s="5" t="s">
         <v>1209</v>
       </c>
-      <c r="I19" s="58"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
@@ -27337,34 +27077,34 @@
       <c r="L24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="12" t="s">
         <v>1227</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="12" t="s">
         <v>1228</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="12" t="s">
         <v>1160</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="E25" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="F25" s="59" t="s">
+      <c r="E25" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>1161</v>
       </c>
-      <c r="G25" s="61" t="s">
+      <c r="G25" s="14" t="s">
         <v>832</v>
       </c>
-      <c r="H25" s="59" t="s">
+      <c r="H25" s="12" t="s">
         <v>1155</v>
       </c>
-      <c r="I25" s="61"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
@@ -27397,34 +27137,34 @@
       <c r="L26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="12" t="s">
         <v>1227</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="12" t="s">
         <v>1230</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="12" t="s">
         <v>1191</v>
       </c>
-      <c r="D27" s="60" t="s">
+      <c r="D27" s="52" t="s">
         <v>720</v>
       </c>
-      <c r="E27" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="F27" s="59" t="s">
+      <c r="E27" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" s="12" t="s">
         <v>1171</v>
       </c>
-      <c r="G27" s="61" t="s">
+      <c r="G27" s="14" t="s">
         <v>832</v>
       </c>
-      <c r="H27" s="59" t="s">
+      <c r="H27" s="12" t="s">
         <v>1155</v>
       </c>
-      <c r="I27" s="61"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
@@ -27487,34 +27227,34 @@
       <c r="L29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="12" t="s">
         <v>1234</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="12" t="s">
         <v>1238</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="12" t="s">
         <v>1239</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="52" t="s">
         <v>267</v>
       </c>
-      <c r="E30" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="F30" s="59" t="s">
+      <c r="E30" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" s="12" t="s">
         <v>1171</v>
       </c>
-      <c r="G30" s="61" t="s">
+      <c r="G30" s="14" t="s">
         <v>1186</v>
       </c>
-      <c r="H30" s="59" t="s">
+      <c r="H30" s="12" t="s">
         <v>1172</v>
       </c>
-      <c r="I30" s="61"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
@@ -27799,7 +27539,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -27818,7 +27558,7 @@
       <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.68"/>
@@ -27826,49 +27566,47 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.61"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="172.26"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="44.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="54" t="s">
         <v>513</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="54" t="s">
         <v>514</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="54" t="s">
         <v>515</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="53" t="s">
         <v>8</v>
       </c>
     </row>
@@ -27882,16 +27620,16 @@
       <c r="C2" s="32" t="s">
         <v>1269</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="49" t="s">
         <v>435</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="49" t="s">
         <v>170</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>1270</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="50" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="32" t="s">
@@ -28309,10 +28047,10 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="57" t="s">
         <v>858</v>
       </c>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="57" t="s">
         <v>1301</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -28339,10 +28077,10 @@
       <c r="L16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="57" t="s">
         <v>858</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="57" t="s">
         <v>1304</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -28360,7 +28098,7 @@
       <c r="G17" s="7" t="s">
         <v>709</v>
       </c>
-      <c r="H17" s="56" t="s">
+      <c r="H17" s="5" t="s">
         <v>833</v>
       </c>
       <c r="I17" s="5"/>
@@ -28369,40 +28107,40 @@
       <c r="L17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="57" t="s">
         <v>858</v>
       </c>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="57" t="s">
         <v>1306</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="5" t="s">
         <v>1307</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="51" t="s">
         <v>1308</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="F18" s="56" t="s">
+      <c r="F18" s="5" t="s">
         <v>1309</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>709</v>
       </c>
-      <c r="H18" s="56" t="s">
+      <c r="H18" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="57" t="s">
         <v>858</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="57" t="s">
         <v>1306</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -28429,40 +28167,40 @@
       <c r="L19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="57" t="s">
         <v>858</v>
       </c>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="57" t="s">
         <v>1313</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="5" t="s">
         <v>1314</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="51" t="s">
         <v>1315</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="F20" s="56" t="s">
+      <c r="F20" s="5" t="s">
         <v>1292</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>709</v>
       </c>
-      <c r="H20" s="56" t="s">
+      <c r="H20" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="57" t="s">
         <v>858</v>
       </c>
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="57" t="s">
         <v>1316</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -28489,10 +28227,10 @@
       <c r="L21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="57" t="s">
         <v>858</v>
       </c>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="57" t="s">
         <v>1319</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -28510,7 +28248,7 @@
       <c r="G22" s="7" t="s">
         <v>709</v>
       </c>
-      <c r="H22" s="56" t="s">
+      <c r="H22" s="5" t="s">
         <v>833</v>
       </c>
       <c r="I22" s="5"/>
@@ -28519,10 +28257,10 @@
       <c r="L22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="57" t="s">
         <v>858</v>
       </c>
-      <c r="B23" s="68" t="s">
+      <c r="B23" s="57" t="s">
         <v>1321</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -28540,7 +28278,7 @@
       <c r="G23" s="7" t="s">
         <v>709</v>
       </c>
-      <c r="H23" s="56" t="s">
+      <c r="H23" s="5" t="s">
         <v>833</v>
       </c>
       <c r="I23" s="5"/>
@@ -28549,10 +28287,10 @@
       <c r="L23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="57" t="s">
         <v>858</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="57" t="s">
         <v>1325</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -28579,10 +28317,10 @@
       <c r="L24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="68" t="s">
+      <c r="A25" s="57" t="s">
         <v>858</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="57" t="s">
         <v>1328</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -28600,7 +28338,7 @@
       <c r="G25" s="7" t="s">
         <v>709</v>
       </c>
-      <c r="H25" s="56" t="s">
+      <c r="H25" s="5" t="s">
         <v>833</v>
       </c>
       <c r="I25" s="5"/>
@@ -28609,16 +28347,16 @@
       <c r="L25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="57" t="s">
         <v>858</v>
       </c>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="57" t="s">
         <v>1330</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="5" t="s">
         <v>1331</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="51" t="s">
         <v>882</v>
       </c>
       <c r="E26" s="6" t="s">
@@ -28630,19 +28368,19 @@
       <c r="G26" s="7" t="s">
         <v>709</v>
       </c>
-      <c r="H26" s="56" t="s">
+      <c r="H26" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="57" t="s">
         <v>858</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="57" t="s">
         <v>1332</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -28660,7 +28398,7 @@
       <c r="G27" s="7" t="s">
         <v>709</v>
       </c>
-      <c r="H27" s="56" t="s">
+      <c r="H27" s="5" t="s">
         <v>833</v>
       </c>
       <c r="I27" s="5"/>
@@ -28669,10 +28407,10 @@
       <c r="L27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="57" t="s">
         <v>858</v>
       </c>
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="57" t="s">
         <v>1334</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -28690,7 +28428,7 @@
       <c r="G28" s="7" t="s">
         <v>709</v>
       </c>
-      <c r="H28" s="56" t="s">
+      <c r="H28" s="5" t="s">
         <v>833</v>
       </c>
       <c r="I28" s="5"/>
@@ -28699,10 +28437,10 @@
       <c r="L28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="57" t="s">
         <v>858</v>
       </c>
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="57" t="s">
         <v>1336</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -28729,10 +28467,10 @@
       <c r="L29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="57" t="s">
         <v>858</v>
       </c>
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="57" t="s">
         <v>1340</v>
       </c>
       <c r="C30" s="5"/>
@@ -28749,7 +28487,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="57" t="s">
         <v>858</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -28779,7 +28517,7 @@
       <c r="L31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="57" t="s">
         <v>875</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -29079,37 +28817,37 @@
       <c r="L41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="56" t="s">
+      <c r="A42" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="5" t="s">
         <v>1374</v>
       </c>
-      <c r="C42" s="56" t="s">
+      <c r="C42" s="5" t="s">
         <v>1375</v>
       </c>
-      <c r="D42" s="57" t="s">
+      <c r="D42" s="51" t="s">
         <v>1376</v>
       </c>
-      <c r="E42" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="F42" s="56" t="s">
+      <c r="E42" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>838</v>
       </c>
-      <c r="G42" s="58" t="s">
+      <c r="G42" s="7" t="s">
         <v>1377</v>
       </c>
-      <c r="H42" s="56" t="s">
+      <c r="H42" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="56" t="s">
+      <c r="A43" s="5" t="s">
         <v>875</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -29121,16 +28859,16 @@
       <c r="D43" s="6" t="s">
         <v>1380</v>
       </c>
-      <c r="E43" s="57" t="s">
+      <c r="E43" s="51" t="s">
         <v>170</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>1309</v>
       </c>
-      <c r="G43" s="58" t="s">
+      <c r="G43" s="7" t="s">
         <v>1377</v>
       </c>
-      <c r="H43" s="56" t="s">
+      <c r="H43" s="5" t="s">
         <v>833</v>
       </c>
       <c r="I43" s="5"/>
@@ -29321,34 +29059,34 @@
       <c r="L49" s="5"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="56" t="s">
+      <c r="A50" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="B50" s="56" t="s">
+      <c r="B50" s="5" t="s">
         <v>1389</v>
       </c>
-      <c r="C50" s="56" t="s">
+      <c r="C50" s="5" t="s">
         <v>1394</v>
       </c>
-      <c r="D50" s="57" t="s">
+      <c r="D50" s="51" t="s">
         <v>1395</v>
       </c>
-      <c r="E50" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="F50" s="56" t="s">
+      <c r="E50" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>1324</v>
       </c>
-      <c r="G50" s="58" t="s">
+      <c r="G50" s="7" t="s">
         <v>1377</v>
       </c>
-      <c r="H50" s="56" t="s">
+      <c r="H50" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="56"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
@@ -29965,7 +29703,7 @@
       <c r="L70" s="5"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="56" t="s">
+      <c r="A71" s="5" t="s">
         <v>875</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -29977,16 +29715,16 @@
       <c r="D71" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="E71" s="57" t="s">
+      <c r="E71" s="51" t="s">
         <v>170</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>1365</v>
       </c>
-      <c r="G71" s="58" t="s">
+      <c r="G71" s="7" t="s">
         <v>1377</v>
       </c>
-      <c r="H71" s="56" t="s">
+      <c r="H71" s="5" t="s">
         <v>833</v>
       </c>
       <c r="I71" s="5"/>
@@ -30059,34 +29797,34 @@
       <c r="L73" s="5"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="56" t="s">
+      <c r="A74" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="B74" s="56" t="s">
+      <c r="B74" s="5" t="s">
         <v>1443</v>
       </c>
-      <c r="C74" s="56" t="s">
+      <c r="C74" s="5" t="s">
         <v>1444</v>
       </c>
-      <c r="D74" s="57" t="s">
+      <c r="D74" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="E74" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="F74" s="56" t="s">
+      <c r="E74" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>1368</v>
       </c>
-      <c r="G74" s="58" t="s">
+      <c r="G74" s="7" t="s">
         <v>1377</v>
       </c>
-      <c r="H74" s="56" t="s">
+      <c r="H74" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="I74" s="56"/>
-      <c r="J74" s="56"/>
-      <c r="K74" s="56"/>
-      <c r="L74" s="56"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
@@ -30998,31 +30736,31 @@
       <c r="A105" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="B105" s="56" t="s">
+      <c r="B105" s="5" t="s">
         <v>1494</v>
       </c>
-      <c r="C105" s="56" t="s">
+      <c r="C105" s="5" t="s">
         <v>1495</v>
       </c>
-      <c r="D105" s="57" t="s">
+      <c r="D105" s="51" t="s">
         <v>882</v>
       </c>
-      <c r="E105" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="F105" s="56" t="s">
+      <c r="E105" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="F105" s="5" t="s">
         <v>1292</v>
       </c>
-      <c r="G105" s="58" t="s">
+      <c r="G105" s="7" t="s">
         <v>982</v>
       </c>
-      <c r="H105" s="56" t="s">
+      <c r="H105" s="5" t="s">
         <v>982</v>
       </c>
-      <c r="I105" s="56"/>
-      <c r="J105" s="56"/>
-      <c r="K105" s="56"/>
-      <c r="L105" s="56"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
@@ -31389,7 +31127,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -31404,11 +31142,11 @@
   </sheetPr>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.51"/>
@@ -31418,47 +31156,45 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.92"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="56.94"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="44.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="54" t="s">
         <v>513</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="54" t="s">
         <v>514</v>
       </c>
-      <c r="K1" s="70" t="s">
+      <c r="K1" s="54" t="s">
         <v>515</v>
       </c>
-      <c r="L1" s="69" t="s">
+      <c r="L1" s="53" t="s">
         <v>8</v>
       </c>
     </row>
@@ -31472,19 +31208,19 @@
       <c r="C2" s="32" t="s">
         <v>1527</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="49" t="s">
         <v>170</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>1278</v>
       </c>
-      <c r="G2" s="73" t="n">
+      <c r="G2" s="59" t="n">
         <v>41987</v>
       </c>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="60" t="s">
         <v>833</v>
       </c>
       <c r="I2" s="32"/>
@@ -31504,17 +31240,17 @@
       <c r="C3" s="32" t="s">
         <v>1530</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66" t="s">
+      <c r="D3" s="49"/>
+      <c r="E3" s="49" t="s">
         <v>170</v>
       </c>
       <c r="F3" s="32" t="s">
         <v>1531</v>
       </c>
-      <c r="G3" s="73" t="n">
+      <c r="G3" s="59" t="n">
         <v>43634</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="60" t="s">
         <v>833</v>
       </c>
       <c r="I3" s="32"/>
@@ -31532,19 +31268,19 @@
       <c r="C4" s="32" t="s">
         <v>1533</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="49" t="s">
         <v>1534</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="49" t="s">
         <v>519</v>
       </c>
       <c r="F4" s="32" t="s">
         <v>1278</v>
       </c>
-      <c r="G4" s="73" t="n">
+      <c r="G4" s="59" t="n">
         <v>43334</v>
       </c>
-      <c r="H4" s="74" t="s">
+      <c r="H4" s="60" t="s">
         <v>833</v>
       </c>
       <c r="I4" s="32"/>
@@ -31562,19 +31298,19 @@
       <c r="C5" s="32" t="s">
         <v>1536</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="49" t="s">
         <v>1537</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="49" t="s">
         <v>519</v>
       </c>
       <c r="F5" s="32" t="s">
         <v>1538</v>
       </c>
-      <c r="G5" s="73" t="n">
+      <c r="G5" s="59" t="n">
         <v>43334</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="60" t="s">
         <v>833</v>
       </c>
       <c r="I5" s="32"/>
@@ -31601,7 +31337,7 @@
       <c r="F6" s="5" t="s">
         <v>1540</v>
       </c>
-      <c r="G6" s="75" t="n">
+      <c r="G6" s="61" t="n">
         <v>42508</v>
       </c>
       <c r="H6" s="5" t="s">
@@ -31633,7 +31369,7 @@
       <c r="F7" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="G7" s="75" t="n">
+      <c r="G7" s="61" t="n">
         <v>42508</v>
       </c>
       <c r="H7" s="5" t="s">
@@ -31665,7 +31401,7 @@
       <c r="F8" s="5" t="s">
         <v>1545</v>
       </c>
-      <c r="G8" s="75" t="n">
+      <c r="G8" s="61" t="n">
         <v>42508</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -31697,7 +31433,7 @@
       <c r="F9" s="5" t="s">
         <v>1278</v>
       </c>
-      <c r="G9" s="75" t="n">
+      <c r="G9" s="61" t="n">
         <v>42508</v>
       </c>
       <c r="H9" s="5" t="s">
@@ -31729,7 +31465,7 @@
       <c r="F10" s="5" t="s">
         <v>1515</v>
       </c>
-      <c r="G10" s="75" t="n">
+      <c r="G10" s="61" t="n">
         <v>42508</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -31761,7 +31497,7 @@
       <c r="F11" s="5" t="s">
         <v>1554</v>
       </c>
-      <c r="G11" s="75" t="n">
+      <c r="G11" s="61" t="n">
         <v>42508</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -31793,7 +31529,7 @@
       <c r="F12" s="5" t="s">
         <v>1557</v>
       </c>
-      <c r="G12" s="75" t="n">
+      <c r="G12" s="61" t="n">
         <v>42508</v>
       </c>
       <c r="H12" s="5" t="s">
@@ -31825,7 +31561,7 @@
       <c r="F13" s="5" t="s">
         <v>1557</v>
       </c>
-      <c r="G13" s="75" t="n">
+      <c r="G13" s="61" t="n">
         <v>42508</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -31859,7 +31595,7 @@
       <c r="F14" s="5" t="s">
         <v>920</v>
       </c>
-      <c r="G14" s="75" t="n">
+      <c r="G14" s="61" t="n">
         <v>42508</v>
       </c>
       <c r="H14" s="5" t="s">
@@ -31891,7 +31627,7 @@
       <c r="F15" s="5" t="s">
         <v>920</v>
       </c>
-      <c r="G15" s="75" t="n">
+      <c r="G15" s="61" t="n">
         <v>42508</v>
       </c>
       <c r="H15" s="5" t="s">
@@ -31923,7 +31659,7 @@
       <c r="F16" s="5" t="s">
         <v>920</v>
       </c>
-      <c r="G16" s="75" t="n">
+      <c r="G16" s="61" t="n">
         <v>42508</v>
       </c>
       <c r="H16" s="5" t="s">
@@ -31955,7 +31691,7 @@
       <c r="F17" s="5" t="s">
         <v>920</v>
       </c>
-      <c r="G17" s="75" t="n">
+      <c r="G17" s="61" t="n">
         <v>42508</v>
       </c>
       <c r="H17" s="5" t="s">
@@ -31987,7 +31723,7 @@
       <c r="F18" s="5" t="s">
         <v>1545</v>
       </c>
-      <c r="G18" s="75" t="n">
+      <c r="G18" s="61" t="n">
         <v>42508</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -32019,7 +31755,7 @@
       <c r="F19" s="5" t="s">
         <v>1278</v>
       </c>
-      <c r="G19" s="75" t="n">
+      <c r="G19" s="61" t="n">
         <v>42508</v>
       </c>
       <c r="H19" s="5" t="s">
@@ -32051,7 +31787,7 @@
       <c r="F20" s="5" t="s">
         <v>1575</v>
       </c>
-      <c r="G20" s="75" t="n">
+      <c r="G20" s="61" t="n">
         <v>42508</v>
       </c>
       <c r="H20" s="5" t="s">
@@ -32083,7 +31819,7 @@
       <c r="F21" s="5" t="s">
         <v>1515</v>
       </c>
-      <c r="G21" s="75" t="n">
+      <c r="G21" s="61" t="n">
         <v>42508</v>
       </c>
       <c r="H21" s="5" t="s">
@@ -32115,7 +31851,7 @@
       <c r="F22" s="5" t="s">
         <v>1581</v>
       </c>
-      <c r="G22" s="75" t="n">
+      <c r="G22" s="61" t="n">
         <v>42508</v>
       </c>
       <c r="H22" s="5" t="s">
@@ -32147,7 +31883,7 @@
       <c r="F23" s="5" t="s">
         <v>1557</v>
       </c>
-      <c r="G23" s="75" t="n">
+      <c r="G23" s="61" t="n">
         <v>42508</v>
       </c>
       <c r="H23" s="5" t="s">
@@ -32179,7 +31915,7 @@
       <c r="F24" s="5" t="s">
         <v>1557</v>
       </c>
-      <c r="G24" s="75" t="n">
+      <c r="G24" s="61" t="n">
         <v>42508</v>
       </c>
       <c r="H24" s="5" t="s">
@@ -32211,7 +31947,7 @@
       <c r="F25" s="5" t="s">
         <v>1557</v>
       </c>
-      <c r="G25" s="75" t="n">
+      <c r="G25" s="61" t="n">
         <v>42508</v>
       </c>
       <c r="H25" s="5" t="s">
@@ -32243,7 +31979,7 @@
       <c r="F26" s="5" t="s">
         <v>920</v>
       </c>
-      <c r="G26" s="75" t="n">
+      <c r="G26" s="61" t="n">
         <v>42508</v>
       </c>
       <c r="H26" s="5" t="s">
@@ -32275,7 +32011,7 @@
       <c r="F27" s="5" t="s">
         <v>920</v>
       </c>
-      <c r="G27" s="75" t="n">
+      <c r="G27" s="61" t="n">
         <v>42508</v>
       </c>
       <c r="H27" s="5" t="s">
@@ -32305,7 +32041,7 @@
       <c r="F28" s="5" t="s">
         <v>1557</v>
       </c>
-      <c r="G28" s="75" t="n">
+      <c r="G28" s="61" t="n">
         <v>43312</v>
       </c>
       <c r="H28" s="5" t="s">
@@ -32335,7 +32071,7 @@
       <c r="F29" s="5" t="s">
         <v>1581</v>
       </c>
-      <c r="G29" s="75" t="n">
+      <c r="G29" s="61" t="n">
         <v>43312</v>
       </c>
       <c r="H29" s="5" t="s">
@@ -32365,7 +32101,7 @@
       <c r="F30" s="5" t="s">
         <v>920</v>
       </c>
-      <c r="G30" s="75" t="n">
+      <c r="G30" s="61" t="n">
         <v>43312</v>
       </c>
       <c r="H30" s="5" t="s">
@@ -32395,7 +32131,7 @@
       <c r="F31" s="5" t="s">
         <v>1599</v>
       </c>
-      <c r="G31" s="75" t="n">
+      <c r="G31" s="61" t="n">
         <v>43312</v>
       </c>
       <c r="H31" s="5" t="s">
@@ -32425,7 +32161,7 @@
       <c r="F32" s="5" t="s">
         <v>1599</v>
       </c>
-      <c r="G32" s="75" t="n">
+      <c r="G32" s="61" t="n">
         <v>43312</v>
       </c>
       <c r="H32" s="5" t="s">
@@ -32455,7 +32191,7 @@
       <c r="F33" s="5" t="s">
         <v>1599</v>
       </c>
-      <c r="G33" s="75" t="n">
+      <c r="G33" s="61" t="n">
         <v>43312</v>
       </c>
       <c r="H33" s="5" t="s">
@@ -32485,7 +32221,7 @@
       <c r="F34" s="5" t="s">
         <v>920</v>
       </c>
-      <c r="G34" s="75" t="n">
+      <c r="G34" s="61" t="n">
         <v>43312</v>
       </c>
       <c r="H34" s="5" t="s">
@@ -32515,7 +32251,7 @@
       <c r="F35" s="5" t="s">
         <v>1599</v>
       </c>
-      <c r="G35" s="75" t="n">
+      <c r="G35" s="61" t="n">
         <v>43312</v>
       </c>
       <c r="H35" s="5" t="s">
@@ -32543,7 +32279,7 @@
       <c r="F36" s="5" t="s">
         <v>1347</v>
       </c>
-      <c r="G36" s="75" t="n">
+      <c r="G36" s="61" t="n">
         <v>43623</v>
       </c>
       <c r="H36" s="5" t="s">
@@ -32557,7 +32293,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -32576,56 +32312,54 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.26"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="26.72"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="44.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="H1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="77" t="s">
+      <c r="I1" s="42" t="s">
         <v>513</v>
       </c>
-      <c r="J1" s="77" t="s">
+      <c r="J1" s="42" t="s">
         <v>514</v>
       </c>
-      <c r="K1" s="77" t="s">
+      <c r="K1" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="L1" s="76" t="s">
+      <c r="L1" s="40" t="s">
         <v>8</v>
       </c>
     </row>
@@ -32648,7 +32382,7 @@
       <c r="F2" s="5" t="s">
         <v>1609</v>
       </c>
-      <c r="G2" s="75" t="n">
+      <c r="G2" s="61" t="n">
         <v>41957</v>
       </c>
       <c r="H2" s="11" t="s">
@@ -32662,41 +32396,41 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="5" t="s">
         <v>1607</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="5" t="s">
         <v>1608</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="51" t="s">
         <v>421</v>
       </c>
-      <c r="E3" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="F3" s="56" t="s">
+      <c r="E3" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>1609</v>
       </c>
-      <c r="G3" s="80" t="n">
+      <c r="G3" s="61" t="n">
         <v>41957</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="5" t="s">
         <v>1610</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
         <v>1611</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -32715,7 +32449,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.16"/>
@@ -32725,47 +32459,45 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.79"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="77.26"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="44.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="54" t="s">
         <v>513</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="54" t="s">
         <v>514</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="54" t="s">
         <v>515</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="53" t="s">
         <v>8</v>
       </c>
     </row>
@@ -32779,27 +32511,27 @@
       <c r="C2" s="32" t="s">
         <v>1614</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="49" t="s">
         <v>779</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="49" t="s">
         <v>170</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>1615</v>
       </c>
-      <c r="G2" s="73" t="n">
+      <c r="G2" s="59" t="n">
         <v>42231</v>
       </c>
       <c r="H2" s="32" t="s">
         <v>1616</v>
       </c>
-      <c r="I2" s="82" t="n">
+      <c r="I2" s="64" t="n">
         <v>43327</v>
       </c>
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
-      <c r="L2" s="83" t="s">
+      <c r="L2" s="65" t="s">
         <v>1617</v>
       </c>
     </row>
@@ -32822,7 +32554,7 @@
       <c r="F3" s="5" t="s">
         <v>1609</v>
       </c>
-      <c r="G3" s="75"/>
+      <c r="G3" s="61"/>
       <c r="H3" s="11"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -32832,37 +32564,37 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="5" t="s">
         <v>1607</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="5" t="s">
         <v>1608</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="51" t="s">
         <v>421</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="51" t="s">
         <v>1618</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="5" t="s">
         <v>1609</v>
       </c>
-      <c r="G4" s="80"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56" t="s">
+      <c r="G4" s="61"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
         <v>1619</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -32881,7 +32613,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.98"/>
@@ -32892,47 +32624,45 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.4"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="144.99"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="44.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="56" t="s">
         <v>1620</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="54" t="s">
         <v>514</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="54" t="s">
         <v>515</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="53" t="s">
         <v>8</v>
       </c>
     </row>
@@ -32946,16 +32676,16 @@
       <c r="C2" s="32" t="s">
         <v>1622</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="49" t="s">
         <v>1623</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>1624</v>
       </c>
-      <c r="G2" s="67"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="32"/>
-      <c r="I2" s="67"/>
+      <c r="I2" s="50"/>
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
       <c r="L2" s="32" t="s">
@@ -33239,106 +32969,106 @@
       <c r="L11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="5" t="s">
         <v>1655</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="5" t="s">
         <v>1656</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="5" t="s">
         <v>1657</v>
       </c>
-      <c r="G12" s="58" t="s">
+      <c r="G12" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="56" t="s">
+      <c r="H12" s="5" t="s">
         <v>1641</v>
       </c>
-      <c r="I12" s="58" t="s">
+      <c r="I12" s="7" t="s">
         <v>1452</v>
       </c>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56" t="s">
+      <c r="J12" s="5"/>
+      <c r="K12" s="5" t="s">
         <v>1528</v>
       </c>
-      <c r="L12" s="56"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="5" t="s">
         <v>1187</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="5" t="s">
         <v>1211</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="5" t="s">
         <v>920</v>
       </c>
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="56" t="s">
+      <c r="H13" s="5" t="s">
         <v>1641</v>
       </c>
-      <c r="I13" s="58" t="s">
+      <c r="I13" s="7" t="s">
         <v>1452</v>
       </c>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56" t="s">
+      <c r="J13" s="5"/>
+      <c r="K13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="56"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="5" t="s">
         <v>1658</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="5" t="s">
         <v>1659</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="5" t="s">
         <v>1660</v>
       </c>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="56" t="s">
+      <c r="H14" s="5" t="s">
         <v>1641</v>
       </c>
-      <c r="I14" s="58" t="s">
+      <c r="I14" s="7" t="s">
         <v>1132</v>
       </c>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56" t="s">
+      <c r="J14" s="5"/>
+      <c r="K14" s="5" t="s">
         <v>1528</v>
       </c>
-      <c r="L14" s="56"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
@@ -34045,41 +33775,41 @@
       <c r="L38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="56" t="s">
+      <c r="A39" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B39" s="56" t="s">
+      <c r="B39" s="5" t="s">
         <v>1709</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="5" t="s">
         <v>1710</v>
       </c>
-      <c r="D39" s="57" t="s">
+      <c r="D39" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="E39" s="57" t="s">
+      <c r="E39" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="F39" s="56" t="s">
+      <c r="F39" s="5" t="s">
         <v>920</v>
       </c>
-      <c r="G39" s="58" t="s">
+      <c r="G39" s="7" t="s">
         <v>996</v>
       </c>
-      <c r="H39" s="56" t="s">
+      <c r="H39" s="5" t="s">
         <v>1641</v>
       </c>
-      <c r="I39" s="58" t="s">
+      <c r="I39" s="7" t="s">
         <v>1693</v>
       </c>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56" t="s">
+      <c r="J39" s="5"/>
+      <c r="K39" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L39" s="56"/>
+      <c r="L39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="46.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="5" t="s">
         <v>318</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -34113,7 +33843,7 @@
       <c r="L40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="5" t="s">
         <v>318</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -34147,75 +33877,75 @@
       <c r="L41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="56" t="s">
+      <c r="A42" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="5" t="s">
         <v>1716</v>
       </c>
-      <c r="C42" s="56" t="s">
+      <c r="C42" s="5" t="s">
         <v>1662</v>
       </c>
-      <c r="D42" s="57" t="s">
+      <c r="D42" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="57" t="s">
+      <c r="E42" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="56" t="s">
+      <c r="F42" s="5" t="s">
         <v>1652</v>
       </c>
-      <c r="G42" s="58" t="s">
+      <c r="G42" s="7" t="s">
         <v>996</v>
       </c>
-      <c r="H42" s="56" t="s">
+      <c r="H42" s="5" t="s">
         <v>1641</v>
       </c>
-      <c r="I42" s="58" t="s">
+      <c r="I42" s="7" t="s">
         <v>1693</v>
       </c>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56" t="s">
+      <c r="J42" s="5"/>
+      <c r="K42" s="5" t="s">
         <v>1528</v>
       </c>
-      <c r="L42" s="56"/>
+      <c r="L42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="56" t="s">
+      <c r="A43" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="5" t="s">
         <v>1717</v>
       </c>
-      <c r="C43" s="56" t="s">
+      <c r="C43" s="5" t="s">
         <v>1718</v>
       </c>
-      <c r="D43" s="57" t="s">
+      <c r="D43" s="51" t="s">
         <v>1651</v>
       </c>
-      <c r="E43" s="57" t="s">
+      <c r="E43" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F43" s="56" t="s">
+      <c r="F43" s="5" t="s">
         <v>1684</v>
       </c>
-      <c r="G43" s="58" t="s">
+      <c r="G43" s="7" t="s">
         <v>996</v>
       </c>
-      <c r="H43" s="56" t="s">
+      <c r="H43" s="5" t="s">
         <v>1641</v>
       </c>
-      <c r="I43" s="58" t="s">
+      <c r="I43" s="7" t="s">
         <v>1693</v>
       </c>
-      <c r="J43" s="56"/>
-      <c r="K43" s="56" t="s">
+      <c r="J43" s="5"/>
+      <c r="K43" s="5" t="s">
         <v>1528</v>
       </c>
-      <c r="L43" s="56"/>
+      <c r="L43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="56" t="s">
+      <c r="A44" s="5" t="s">
         <v>318</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -34249,38 +33979,38 @@
       <c r="L44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="5" t="s">
         <v>1722</v>
       </c>
-      <c r="C45" s="56" t="s">
+      <c r="C45" s="5" t="s">
         <v>1723</v>
       </c>
-      <c r="D45" s="57" t="s">
+      <c r="D45" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="E45" s="57" t="s">
+      <c r="E45" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F45" s="56" t="s">
+      <c r="F45" s="5" t="s">
         <v>1724</v>
       </c>
-      <c r="G45" s="58" t="s">
+      <c r="G45" s="7" t="s">
         <v>996</v>
       </c>
-      <c r="H45" s="56" t="s">
+      <c r="H45" s="5" t="s">
         <v>1641</v>
       </c>
-      <c r="I45" s="58" t="s">
+      <c r="I45" s="7" t="s">
         <v>1693</v>
       </c>
-      <c r="J45" s="56"/>
-      <c r="K45" s="56" t="s">
+      <c r="J45" s="5"/>
+      <c r="K45" s="5" t="s">
         <v>1528</v>
       </c>
-      <c r="L45" s="84" t="s">
+      <c r="L45" s="66" t="s">
         <v>1725</v>
       </c>
     </row>
@@ -34391,7 +34121,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -34410,61 +34140,58 @@
       <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.78"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.37"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="7" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="44.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="56" t="s">
         <v>1620</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="54" t="s">
         <v>514</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="54" t="s">
         <v>515</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="53" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
